--- a/data/trans_bre/P25_12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_12-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,49</t>
+          <t>14,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,98</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>10,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,82</t>
+          <t>16,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>329,34%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>134,21%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>101,79%</t>
+          <t>268,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>200,74%</t>
+          <t>147,89%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>114,66%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>109,75%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,38; 21,0</t>
+          <t>7,1; 22,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 17,98</t>
+          <t>6,27; 20,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 14,8</t>
+          <t>4,97; 15,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,02; 23,02</t>
+          <t>6,36; 27,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>125,38; 861,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,77; 278,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,84; 216,75</t>
+          <t>67,63; 736,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>91,05; 365,85</t>
+          <t>43,55; 342,16</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>37,02; 251,71</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31,04; 276,83</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,51</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,35</t>
+          <t>10,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,53</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>148,78%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>194,82%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>177,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>149,09%</t>
+          <t>176,82%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>92,36%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>87,58%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 12,2</t>
+          <t>5,04; 15,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 13,42</t>
+          <t>6,54; 14,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 10,36</t>
+          <t>2,91; 11,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,15; 19,1</t>
+          <t>3,64; 14,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>66,79; 281,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>102,69; 326,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,73; 185,71</t>
+          <t>54,44; 397,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,59; 243,19</t>
+          <t>70,02; 333,4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>21,24; 191,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25,42; 169,61</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>125,11%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>103,26%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>107,8%</t>
+          <t>160,64%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>99,52%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>76,2%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 7,56</t>
+          <t>1,0; 9,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 10,5</t>
+          <t>4,09; 11,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 9,15</t>
+          <t>2,04; 8,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 12,15</t>
+          <t>1,88; 11,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 172,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,25; 277,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,94; 221,54</t>
+          <t>9,79; 262,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 373,19</t>
+          <t>51,95; 358,56</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23,28; 211,63</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12,94; 184,47</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>147,57%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>159,86%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>102,63%</t>
+          <t>120,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>154,61%</t>
+          <t>114,7%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>111,66%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,88</t>
+          <t>3,1; 10,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,48; 12,12</t>
+          <t>2,67; 12,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 15,22</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>35,35; 259,69</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23,42; 277,6</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>35,26; 222,55</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8,51</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,91</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,47</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10,4</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>148,6%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>153,56%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>102,6%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>101,78%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,87; 10,83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 12,29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>4,79; 9,74</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>10,26; 16,69</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>80,9; 241,65</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>104,07; 242,07</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>53,06; 166,9</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>103,36; 226,51</t>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,37; 13,6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>78,11; 227,36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>92,98; 226,76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>47,84; 157,06</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>63,29; 154,67</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_12-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14,82</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,83</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,57</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>16,6</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>268,19%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>147,89%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>114,66%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>109,75%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>16.52320677400789</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14.03025602869526</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.38986973392724</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>16.48025707831752</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>2.98609380482366</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.499199889836229</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.103411667347459</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.095797925490637</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>7,1; 22,72</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,27; 20,42</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,97; 15,99</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,36; 27,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>67,63; 736,38</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>43,55; 342,16</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>37,02; 251,71</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>31,04; 276,83</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>8.288609543951569</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>6.105513663555769</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4.592121729887134</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>6.561716537349076</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>0.8042491068919881</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.4145584519469096</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.304365281748356</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.3211404297021672</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.37406668701315</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.89565105453493</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.01872780723427</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>27.58312570005774</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>8.12759577548943</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.357622547021362</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.492451294850837</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.888828055420198</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,45</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,75</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,92</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,25</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>177,12%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>176,82%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>92,36%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>87,58%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 15,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,54; 14,77</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 11,15</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>3,64; 14,36</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>54,44; 397,97</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>70,02; 333,4</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>21,24; 191,32</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>25,42; 169,61</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>10.69855352986496</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11.00332982323708</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.843063897195475</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>9.61544912029203</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>1.992076956947595</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.835743350470647</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.9226139751470003</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.9364006529841524</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,36</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,64</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,85</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>97,87%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>160,64%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>99,52%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>76,2%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5.794196455133725</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>6.873605848108946</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.798000710425358</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>4.190565903402302</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>0.6789174269722914</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.758349950318784</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.228424994454618</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.2866846908784698</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 9,28</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4,09; 11,52</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 8,9</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 11,83</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>9,79; 262,2</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>51,95; 358,56</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>23,28; 211,63</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>12,94; 184,47</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.86170592227241</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.9815881127051</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.88814078912915</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.74640548225746</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>4.313108496623761</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.506129854626025</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.965954507141887</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.803675345680484</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,97</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,76</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,87</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>120,31%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>114,7%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>111,66%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>5.00911891668138</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.433541922118636</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.491448958584496</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.076344672258526</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.8445053165635765</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.439149177080973</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.9605247921924415</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.7990170686150877</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,1; 10,85</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 12,76</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,33; 15,22</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>35,35; 259,69</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>23,42; 277,6</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>35,26; 222,55</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.2022361692791334</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.271779056656816</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.818282137086449</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>2.019882795327517</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.09144503963742957</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.3838399297802966</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.205110457782683</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.1660587278280299</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.227142150276936</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.21654438731339</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.638152132799615</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>12.13800361406548</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>2.556585616692587</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.266060700512134</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.070898441501988</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.942505079402615</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>8,51</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,91</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,47</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,4</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>148,6%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>153,56%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>102,6%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>101,78%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>5,87; 10,83</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7,43; 12,29</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,79; 9,74</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7,37; 13,6</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>78,11; 227,36</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>92,98; 226,76</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>47,84; 157,06</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>63,29; 154,67</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>9.807541533480494</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>10.59033460844593</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.369963729013526</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>10.73283273612086</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>1.750656617850118</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.652438668317682</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.008664515056149</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.005544611821604</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.485047492057299</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>7.55067492488927</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.64396955518886</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7.190452778064434</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.7981897460399212</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.9449679635617102</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.467312866221975</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.5710152585069023</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.01305806764343</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>13.07655347032722</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.633729494729236</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>14.42405150640338</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>2.994371728384795</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.587539171083338</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.573732752751547</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.585810918327099</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
